--- a/medicine/Enfance/Prix_Hans-Christian-Andersen/Prix_Hans-Christian-Andersen.xlsx
+++ b/medicine/Enfance/Prix_Hans-Christian-Andersen/Prix_Hans-Christian-Andersen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix Hans-Christian-Andersen, parfois surnommé le petit prix Nobel de littérature, est un prix international décerné tous les deux ans par l'Union internationale pour les livres de jeunesse[1] (IBBY) en reconnaissance d'une « contribution durable à la littérature pour enfants ». Il y a deux catégories de lauréats : auteurs et illustrateurs.
+Le prix Hans-Christian-Andersen, parfois surnommé le petit prix Nobel de littérature, est un prix international décerné tous les deux ans par l'Union internationale pour les livres de jeunesse (IBBY) en reconnaissance d'une « contribution durable à la littérature pour enfants ». Il y a deux catégories de lauréats : auteurs et illustrateurs.
 Le prix tient son nom de l'écrivain danois Hans Christian Andersen, et les lauréats reçoivent une médaille d'or des mains de la reine du Danemark.
 En plus du prix, l'IBBY publie une « Liste d'honneur » bisannuelle de nouveaux livres pour la jeunesse choisis pour leur excellence par les sections nationales de l'IBBY, dans les domaines de l'écriture, l'illustration et la traduction de livres pour enfants.
 </t>
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Écriture
-Le prix Hans-Christian-Andersen d'écriture est décerné depuis 1956.
+          <t>Écriture</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le prix Hans-Christian-Andersen d'écriture est décerné depuis 1956.
 1956 : Eleanor Farjeon (Royaume-Uni)
 1958 : Astrid Lindgren (Suède)
 1960 : Erich Kästner (Allemagne)
@@ -549,12 +566,46 @@
 2012 : María Teresa Andruetto (Argentine)
 2014 : Nahoko Uehashi (Japon)
 2016 : Cao Wenxuan (Chine)
-2018 : Eiko Kadono (Japon)[2]
+2018 : Eiko Kadono (Japon)
 2020 : Jacqueline Woodson (États-Unis)
 2022 : Marie-Aude Murail (France)
-2024 : Heinz Janisch (de) (Autriche)[3]
-Illustration
-Le prix Hans-Christian-Andersen d'illustration est remis depuis 1966.
+2024 : Heinz Janisch (de) (Autriche)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prix_Hans-Christian-Andersen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Hans-Christian-Andersen</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le prix Hans-Christian-Andersen d'illustration est remis depuis 1966.
 1966 - Alois Carigiet (Suisse)
 1968 - Jiří Trnka (Tchécoslovaquie)
 1970 - Maurice Sendak (États-Unis)
@@ -584,7 +635,7 @@
 2018 - Igor Oleynikov (Russie)
 2020 - Albertine (Suisse)
 2022 - Suzy Lee (République de Corée)
-2024 - Sydney Smith (en) (Canada)[3]</t>
+2024 - Sydney Smith (en) (Canada)</t>
         </is>
       </c>
     </row>
